--- a/public/online_lesson_template.xlsx
+++ b/public/online_lesson_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raph\projects\gifted-v3\smarti-web\smarti-web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919FC60F-CFE7-4F78-B7A9-73542C69B80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51722982-D25E-4542-AB00-DF8D509CC621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="102">
   <si>
     <t>מבנה עשרוני</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>systemStep</t>
   </si>
 </sst>
 </file>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +700,7 @@
     <col min="5" max="5" width="94.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -713,8 +716,11 @@
       <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -731,7 +737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -748,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -765,7 +771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -782,7 +788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -799,7 +805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -816,7 +822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -833,7 +839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -850,7 +856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -867,7 +873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -884,7 +890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -901,7 +907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -918,7 +924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -935,7 +941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -952,7 +958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
